--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066F58E-B117-4C55-9E64-C329B83F6D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473600CF-63D1-40F3-916C-3E0B0A04C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -166,6 +166,24 @@
   <si>
     <t>Confirmation que la première visite c'est bien passée.
 Proposition d'une téchnique de rédaction pour la documentation</t>
+  </si>
+  <si>
+    <t>Correction du diagramme séquence système</t>
+  </si>
+  <si>
+    <t>Diagramme de classe</t>
+  </si>
+  <si>
+    <t>C'étais une très bonne journée et j'ai appris beaucoup de choses par rapport à la suite du projet. J'ai eus du mal à commencer la journée car j'étais un peu stressé de rencontrer les experts.</t>
+  </si>
+  <si>
+    <t>Diagrammes d'activités</t>
+  </si>
+  <si>
+    <t>Diagrammes de séquence d'interaction</t>
+  </si>
+  <si>
+    <t>Planification des tests fonctionnels</t>
   </si>
 </sst>
 </file>
@@ -679,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -688,265 +706,240 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1557,12 +1550,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1575,918 +1568,916 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="31">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="21">
         <v>148477</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="46" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="38">
         <v>45433</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53">
+      <c r="C6" s="58"/>
+      <c r="D6" s="32">
         <v>1.5</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="54">
+      <c r="C7" s="51"/>
+      <c r="D7" s="33">
         <v>1</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="51">
+      <c r="C8" s="52"/>
+      <c r="D8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="31">
         <v>0.5</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="51">
+      <c r="A10" s="39"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="51">
+      <c r="C11" s="44"/>
+      <c r="D11" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="31">
         <f>SUM(D6:D12)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="47">
+      <c r="A15" s="38">
         <v>45434</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="51">
+      <c r="C16" s="41"/>
+      <c r="D16" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="51">
+      <c r="C17" s="48"/>
+      <c r="D17" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="31">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="51"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="35" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="51">
-        <f>SUM(D15:D23)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+      <c r="D22" s="31">
+        <f>SUM(D15:D21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38">
         <v>45435</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
+      <c r="B24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="31">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="51"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="35" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="51">
-        <f>SUM(D26:D30)</f>
+      <c r="D29" s="31">
+        <f>SUM(D24:D28)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
+        <v>45436</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="31">
+        <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
-        <v>45436</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="51"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="51"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="51"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="51"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="35" t="s">
+    <row r="37" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38">
+        <v>45437</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C43" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="51">
-        <f>SUM(D33:D37)</f>
+      <c r="D43" s="31">
+        <f>SUM(D38:D42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
-        <v>45437</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="61"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="51"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="51"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="35" t="s">
+    <row r="44" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C50" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="51">
-        <f>SUM(D40:D44)</f>
+      <c r="D50" s="31">
+        <f>SUM(D45:D49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="51"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="51"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="35" t="s">
+    <row r="51" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C57" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="51">
-        <f>SUM(D47:D51)</f>
+      <c r="D57" s="31">
+        <f>SUM(D52:D56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="51"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
-      <c r="B59" s="35" t="s">
+    <row r="58" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="46"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="37"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C64" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="51">
-        <f>SUM(D54:D58)</f>
+      <c r="D64" s="31">
+        <f>SUM(D59:D63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="58"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="51"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="51"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="51"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="51"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
-      <c r="B66" s="35" t="s">
+    <row r="65" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="37"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C71" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="51">
-        <f>SUM(D61:D65)</f>
+      <c r="D71" s="31">
+        <f>SUM(D66:D70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="58"/>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="61"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="51"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="51"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="51"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="55"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="51"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="55"/>
-      <c r="B73" s="35" t="s">
+    <row r="72" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="46"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="37"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="31"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C78" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="51">
-        <f>SUM(D68:D72)</f>
+      <c r="D78" s="31">
+        <f>SUM(D73:D77)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="61"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="51"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="55"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="51"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="55"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="51"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="51"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
-      <c r="B80" s="35" t="s">
+    <row r="79" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="46"/>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="38"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="37"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="39"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="31"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="39"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="31"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="39"/>
+      <c r="B85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C85" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="51">
-        <f>SUM(D75:D79)</f>
+      <c r="D85" s="31">
+        <f>SUM(D80:D84)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="61"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="51"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="51"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="51"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="51"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
-      <c r="B87" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="51">
-        <f>SUM(D82:D86)</f>
+    <row r="86" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="50"/>
+    </row>
+    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="34"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="28">
+        <f>D13+D22+D29+D36+D43+D50+D57+D64+D71+D78+D85</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="50"/>
-    </row>
-    <row r="89" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="40">
-        <f>D13+D24+D31+D38+D45+D52+D59+D66+D73+D80+D87</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:D67"/>
+  <mergeCells count="81">
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D13">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D13 D15:D22">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D24">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D15)))</formula>
+  <conditionalFormatting sqref="D24:D29">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D15)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D31">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D26)))</formula>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D26)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D38">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D33)))</formula>
+  <conditionalFormatting sqref="D38:D43">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D33)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D40)))</formula>
+  <conditionalFormatting sqref="D45:D50">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D40)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D52">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D47)))</formula>
+  <conditionalFormatting sqref="D52:D57">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D47)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D59">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D54)))</formula>
+  <conditionalFormatting sqref="D59:D64">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D54)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D66">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D61)))</formula>
+  <conditionalFormatting sqref="D66:D71">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D61)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
+  <conditionalFormatting sqref="D73:D78">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D80">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D75)))</formula>
+  <conditionalFormatting sqref="D80:D85">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D75)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D87">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
+  <conditionalFormatting sqref="D87">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2498,8 +2489,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="53" max="16383" man="1"/>
-    <brk id="89" max="3" man="1"/>
+    <brk id="51" max="16383" man="1"/>
+    <brk id="87" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HOME/alikadev/code/TPI/RoadTrafficSimulator/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473600CF-63D1-40F3-916C-3E0B0A04C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A880B6F7-85B6-404D-B29E-691463002478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -183,7 +183,15 @@
     <t>Diagrammes de séquence d'interaction</t>
   </si>
   <si>
-    <t>Planification des tests fonctionnels</t>
+    <t>Décisions:
+- Ajouter la vitesse de la simulation paramétrable (mon idée)
+- Corriger le diagramme de classe maintenant et faire un reverse à la fin</t>
+  </si>
+  <si>
+    <t>Correction des schémas d'après la discussion ci-dessus</t>
+  </si>
+  <si>
+    <t>J'ai bien avencé sur la documentation aujourd'hui et la totalité des diagrammes sont corrigé et confirmer. Je suis un peu en retard sur l'implémentation mais une demi journée n'est pas dramatique!</t>
   </si>
 </sst>
 </file>
@@ -787,10 +795,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -831,6 +835,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -843,6 +867,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -855,42 +895,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -933,13 +937,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -948,6 +967,72 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1024,7 +1109,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,7 +1120,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1061,134 +1146,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1550,57 +1514,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1640625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1609,11 +1573,11 @@
       <c r="G4" s="5"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="30" t="s">
+    <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1622,15 +1586,15 @@
       <c r="G5" s="3"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
         <v>45433</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="32">
+      <c r="C6" s="57"/>
+      <c r="D6" s="31">
         <v>1.5</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1639,13 +1603,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="33">
+      <c r="C7" s="47"/>
+      <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1654,830 +1618,812 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="31">
+      <c r="C8" s="48"/>
+      <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="31">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="30">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="31">
+      <c r="C11" s="39"/>
+      <c r="D11" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
       <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <f>SUM(D6:D12)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
         <v>45434</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41" t="s">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="31">
+      <c r="C16" s="49"/>
+      <c r="D16" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="48" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="31">
+      <c r="C17" s="40"/>
+      <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A18" s="43"/>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="27" t="s">
+    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.15">
+      <c r="A19" s="43"/>
+      <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="43"/>
+      <c r="B20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="31">
+      <c r="C20" s="39"/>
+      <c r="D20" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="31">
+      <c r="C21" s="51"/>
+      <c r="D21" s="30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
       <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <f>SUM(D15:D21)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42">
         <v>45435</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="31">
+      <c r="C25" s="51"/>
+      <c r="D25" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="B26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="31">
+      <c r="C26" s="39"/>
+      <c r="D26" s="30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="44" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="B27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="31">
+      <c r="C27" s="39"/>
+      <c r="D27" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="44" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="B28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="30">
+        <f>SUM(D24:D27)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="42">
+        <v>45436</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="24" t="s">
+      <c r="D31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="43"/>
+      <c r="B32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="43"/>
+      <c r="B33" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="31">
-        <f>SUM(D24:D28)</f>
+      <c r="D33" s="30">
+        <f>SUM(D30:D32)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
-        <v>45436</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="24" t="s">
+    <row r="34" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42">
+        <v>45439</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="43"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="43"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="43"/>
+      <c r="B40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="31">
-        <f>SUM(D31:D35)</f>
+      <c r="D40" s="30">
+        <f>SUM(D35:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>45437</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="37"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="31"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="24" t="s">
+    <row r="41" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="42">
+        <v>45440</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="43"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="43"/>
+      <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="31">
-        <f>SUM(D38:D42)</f>
+      <c r="D47" s="30">
+        <f>SUM(D42:D46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="37"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="24" t="s">
+    <row r="48" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="42">
+        <v>45441</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="43"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="43"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="43"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="43"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="43"/>
+      <c r="B54" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="31">
-        <f>SUM(D45:D49)</f>
+      <c r="D54" s="30">
+        <f>SUM(D49:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="37"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="31"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="31"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="24" t="s">
+    <row r="55" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="42">
+        <v>45442</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="43"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="43"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="43"/>
+      <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="31">
-        <f>SUM(D52:D56)</f>
+      <c r="D61" s="30">
+        <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="46"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="37"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="31"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="31"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="31"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="24" t="s">
+    <row r="62" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="44"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="36"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="43"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="43"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="43"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="43"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="43"/>
+      <c r="B68" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="31">
-        <f>SUM(D59:D63)</f>
+      <c r="D68" s="30">
+        <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="37"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="31"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="31"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="31"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="24" t="s">
+    <row r="69" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="44"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="42"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="36"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="43"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="43"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="43"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="43"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="43"/>
+      <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="31">
-        <f>SUM(D66:D70)</f>
+      <c r="D75" s="30">
+        <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="46"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="37"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="31"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="31"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="31"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="24" t="s">
+    <row r="76" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="44"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="42"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="36"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="43"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="43"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="43"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="43"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="43"/>
+      <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C82" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="31">
-        <f>SUM(D73:D77)</f>
+      <c r="D82" s="30">
+        <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="37"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="31"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="31"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="39"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="31"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="39"/>
-      <c r="B85" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="31">
-        <f>SUM(D80:D84)</f>
+    <row r="83" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="44"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="46"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="27">
+        <f>D13+D22+D28+D33+D40+D47+D54+D61+D68+D75+D82</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-    </row>
-    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="28">
-        <f>D13+D22+D29+D36+D43+D50+D57+D64+D71+D78+D85</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A88:D88"/>
+  <mergeCells count="77">
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D13 D15:D22">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D13 D15:D22 D24:D28 D30:D33">
+    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D29">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D24)))</formula>
+  <conditionalFormatting sqref="D42:D47">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D24)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D31)))</formula>
+  <conditionalFormatting sqref="D49:D54">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D31)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D43">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D38)))</formula>
+  <conditionalFormatting sqref="D56:D61">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D38)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D50">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D45)))</formula>
+  <conditionalFormatting sqref="D63:D68">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D45)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D52)))</formula>
+  <conditionalFormatting sqref="D70:D75">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D52)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
+  <conditionalFormatting sqref="D77:D82">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D85">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2489,8 +2435,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="51" max="16383" man="1"/>
-    <brk id="87" max="3" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="84" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HOME/alikadev/code/TPI/RoadTrafficSimulator/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A880B6F7-85B6-404D-B29E-691463002478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542307CD-9746-4377-AD67-D0C85B2AEDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>J'ai bien avencé sur la documentation aujourd'hui et la totalité des diagrammes sont corrigé et confirmer. Je suis un peu en retard sur l'implémentation mais une demi journée n'est pas dramatique!</t>
+  </si>
+  <si>
+    <t>Implémenter la DB</t>
+  </si>
+  <si>
+    <t>Préparer les requêtes de la DB</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -835,6 +841,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -843,28 +869,76 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -875,71 +949,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -955,84 +965,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1109,6 +1042,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1131,6 +1075,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1143,6 +1098,61 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1516,54 +1526,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1640625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1573,10 +1583,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1586,14 +1596,14 @@
       <c r="G5" s="3"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
         <v>45433</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
@@ -1603,12 +1613,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="32">
         <v>1</v>
       </c>
@@ -1618,18 +1628,18 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1640,26 +1650,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="30">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1670,8 +1680,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
       <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
@@ -1683,16 +1693,16 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="37" t="s">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="42">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
         <v>45434</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -1705,28 +1715,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1737,8 +1747,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
       <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1749,28 +1759,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="50" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
       <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
@@ -1782,56 +1792,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42">
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38">
         <v>45435</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="36"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="50" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="39" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
       <c r="B28" s="24" t="s">
         <v>6</v>
       </c>
@@ -1843,26 +1853,26 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42">
+    <row r="29" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
         <v>45436</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="36">
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
       <c r="B31" s="19" t="s">
         <v>27</v>
       </c>
@@ -1873,18 +1883,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="39" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="39"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
       <c r="B33" s="24" t="s">
         <v>6</v>
       </c>
@@ -1896,48 +1906,56 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="42">
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
         <v>45439</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="B35" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
       <c r="B40" s="24" t="s">
         <v>6</v>
       </c>
@@ -1946,49 +1964,49 @@
       </c>
       <c r="D40" s="30">
         <f>SUM(D35:D39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38">
         <v>45440</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
       <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
@@ -2000,46 +2018,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="42">
+    <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38">
         <v>45441</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="36"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
       <c r="B54" s="24" t="s">
         <v>6</v>
       </c>
@@ -2051,46 +2069,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="42">
+    <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="38">
         <v>45442</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="36"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="30"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="30"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
       <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
@@ -2102,44 +2120,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
+    <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="38"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="36"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="30"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="30"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
       <c r="B68" s="24" t="s">
         <v>6</v>
       </c>
@@ -2151,44 +2169,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
+    <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="36"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="30"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="30"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="30"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="30"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="43"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
       <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
@@ -2200,44 +2218,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="44"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
+    <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="38"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="36"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="30"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="30"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
       <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
@@ -2249,13 +2267,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="44"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="46"/>
-    </row>
-    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="63"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="2"/>
       <c r="C84" s="18" t="s">
@@ -2263,19 +2281,80 @@
       </c>
       <c r="D84" s="27">
         <f>D13+D22+D28+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B17:C17"/>
@@ -2292,74 +2371,13 @@
     <mergeCell ref="A42:A48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D22 D24:D28 D30:D33">
-    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D40">
@@ -2371,27 +2389,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D47">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D54">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D61">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D68">
@@ -2411,19 +2429,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D82">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542307CD-9746-4377-AD67-D0C85B2AEDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A423A-A364-4FBE-961D-953E636AFD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Préparer les requêtes de la DB</t>
+  </si>
+  <si>
+    <t>Correction du journal</t>
+  </si>
+  <si>
+    <t>La partie "réalisation" était trop differente de la vrai réalisation maintenant que l'analyse et la conceptions sont fait!</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -841,116 +847,124 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1529,7 +1543,7 @@
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37:C37"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,19 +1556,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
@@ -1567,13 +1581,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1584,9 +1598,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1597,13 +1611,13 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="41">
         <v>45433</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
@@ -1614,11 +1628,11 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="32">
         <v>1</v>
       </c>
@@ -1629,17 +1643,17 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1651,25 +1665,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1695,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
@@ -1694,15 +1708,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="41">
         <v>45434</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -1716,27 +1730,27 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1762,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1760,27 +1774,27 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="30">
         <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
@@ -1793,55 +1807,55 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="41">
         <v>45435</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="24" t="s">
         <v>6</v>
       </c>
@@ -1854,25 +1868,25 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
+      <c r="A30" s="41">
         <v>45436</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="36">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="19" t="s">
         <v>27</v>
       </c>
@@ -1884,17 +1898,17 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="24" t="s">
         <v>6</v>
       </c>
@@ -1907,15 +1921,15 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="41">
         <v>45439</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -1927,35 +1941,41 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="30"/>
+    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="24" t="s">
         <v>6</v>
       </c>
@@ -1964,49 +1984,49 @@
       </c>
       <c r="D40" s="30">
         <f>SUM(D35:D39)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
+      <c r="A42" s="41">
         <v>45440</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
@@ -2019,45 +2039,45 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
+      <c r="A49" s="41">
         <v>45441</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="30"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="24" t="s">
         <v>6</v>
       </c>
@@ -2070,45 +2090,45 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="43"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
+      <c r="A56" s="41">
         <v>45442</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
@@ -2121,43 +2141,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="24" t="s">
         <v>6</v>
       </c>
@@ -2170,43 +2190,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
@@ -2219,43 +2239,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
       <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
@@ -2268,10 +2288,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
@@ -2281,39 +2301,61 @@
       </c>
       <c r="D84" s="27">
         <f>D13+D22+D28+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>34</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
+  <mergeCells count="76">
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A63:A69"/>
     <mergeCell ref="B62:D62"/>
@@ -2328,49 +2370,26 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D22 D24:D28 D30:D33">
     <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A423A-A364-4FBE-961D-953E636AFD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21FD7B-70A7-420F-B16B-C4F26DBDD9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>La partie "réalisation" était trop differente de la vrai réalisation maintenant que l'analyse et la conceptions sont fait!</t>
+  </si>
+  <si>
+    <t>Créer la base de l'application</t>
   </si>
 </sst>
 </file>
@@ -847,6 +850,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -855,7 +886,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -863,16 +902,64 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -880,90 +967,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1543,7 +1546,7 @@
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39:C39"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1556,19 +1559,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
@@ -1581,13 +1584,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1598,9 +1601,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1611,13 +1614,13 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>45433</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
@@ -1628,11 +1631,11 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="32">
         <v>1</v>
       </c>
@@ -1643,17 +1646,17 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1665,25 +1668,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
@@ -1708,15 +1711,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41">
+      <c r="A15" s="40">
         <v>45434</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -1730,27 +1733,27 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1774,27 +1777,27 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="30">
         <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
@@ -1807,55 +1810,55 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41">
+      <c r="A24" s="40">
         <v>45435</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="24" t="s">
         <v>6</v>
       </c>
@@ -1868,25 +1871,25 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41">
+      <c r="A30" s="40">
         <v>45436</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="36">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="19" t="s">
         <v>27</v>
       </c>
@@ -1898,17 +1901,17 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="24" t="s">
         <v>6</v>
       </c>
@@ -1921,41 +1924,41 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41">
+      <c r="A35" s="40">
         <v>45439</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="30">
@@ -1963,19 +1966,23 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="30">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="24" t="s">
         <v>6</v>
       </c>
@@ -1984,49 +1991,49 @@
       </c>
       <c r="D40" s="30">
         <f>SUM(D35:D39)</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41">
+      <c r="A42" s="40">
         <v>45440</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
@@ -2039,45 +2046,45 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41">
+      <c r="A49" s="40">
         <v>45441</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="30"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="24" t="s">
         <v>6</v>
       </c>
@@ -2090,45 +2097,45 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41">
+      <c r="A56" s="40">
         <v>45442</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="42"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
@@ -2141,43 +2148,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="42"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="42"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="42"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="24" t="s">
         <v>6</v>
       </c>
@@ -2190,43 +2197,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="42"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="42"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="42"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
@@ -2239,43 +2246,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="42"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="42"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="42"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
@@ -2288,10 +2295,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
@@ -2301,19 +2308,79 @@
       </c>
       <c r="D84" s="27">
         <f>D13+D22+D28+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>34.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B17:C17"/>
@@ -2329,67 +2396,7 @@
     <mergeCell ref="A42:A48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D22 D24:D28 D30:D33">
     <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21FD7B-70A7-420F-B16B-C4F26DBDD9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85AD907-90FB-46A5-BC95-F713593D914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -111,16 +111,10 @@
     <t>Séquence système</t>
   </si>
   <si>
-    <t>Rendez-vous Erasmus</t>
-  </si>
-  <si>
     <t>Modèle relationnel</t>
   </si>
   <si>
     <t>Première visite des experts</t>
-  </si>
-  <si>
-    <t>J'ai assez bien avancé sur l'analyse. Je sens que les diagrammes ne seront pas un gros problème pour ce projet et ça me donne confiance!</t>
   </si>
   <si>
     <t>Préparation à la visite</t>
@@ -207,6 +201,26 @@
   </si>
   <si>
     <t>Créer la base de l'application</t>
+  </si>
+  <si>
+    <t>Impossible de lier l'application avec le driver JDBC. Netbeans ne prend pas en compte le nouveau package de Maven et l'installation manuelle ne fonctionne pas non-plus.</t>
+  </si>
+  <si>
+    <t>Solution N°2: JDBC et NetBeans</t>
+  </si>
+  <si>
+    <t>Problème N°2: JDBC et NetBeans</t>
+  </si>
+  <si>
+    <t>Création de la page de connection</t>
+  </si>
+  <si>
+    <t>Un collègue m'a recommander d'installer Intelij IDEA (Community Edition) et ceci à régler tous les problèmes. Finalement je vais continuer le projet avec cet IDE
+Mon chef de projet valide ce changement.</t>
+  </si>
+  <si>
+    <t>J'ai assez bien avancé sur l'analyse. Je sens que les diagrammes ne seront pas un gros problème pour ce projet et ça me donne confiance!
+J'ai eus un rdv avec Erasmus</t>
   </si>
 </sst>
 </file>
@@ -858,6 +872,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -898,7 +916,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -942,10 +960,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -958,7 +972,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1177,9 +1191,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF99"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF7C80"/>
+      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1541,12 +1555,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1559,19 +1573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
@@ -1584,54 +1598,54 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="41">
         <v>45433</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
@@ -1640,122 +1654,124 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="30">
+      <c r="C10" s="48"/>
+      <c r="D10" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30">
+        <f>SUM(D6:D11)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>45434</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="30">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="47" t="s">
+    <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="30">
-        <f>SUM(D6:D12)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
-        <v>45434</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
       <c r="B18" s="19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>26</v>
@@ -1764,641 +1780,640 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="30">
+      <c r="C20" s="62"/>
+      <c r="D20" s="30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="30">
+        <f>SUM(D14:D20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41">
+        <v>45435</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="30">
+        <f>SUM(D23:D26)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41">
+        <v>45436</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="30">
+        <f>SUM(D29:D31)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41">
+        <v>45439</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="30">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="30">
-        <f>SUM(D15:D21)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
-        <v>45435</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="36"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="30">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="30">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="30">
-        <f>SUM(D24:D27)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
-        <v>45436</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="36">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="30">
-        <f>SUM(D30:D32)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
-        <v>45439</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="30">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="38" t="s">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="47"/>
       <c r="D38" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="24" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="30">
-        <f>SUM(D35:D39)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
+      <c r="D39" s="30">
+        <f>SUM(D34:D38)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+    </row>
+    <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="41">
         <v>45440</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="36"/>
+      <c r="B41" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
-      <c r="B47" s="24" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="30">
-        <f>SUM(D42:D46)</f>
+      <c r="D46" s="30">
+        <f>SUM(D41:D45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41">
+        <v>45441</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="30">
+        <f>SUM(D48:D52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40">
-        <v>45441</v>
-      </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="36"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="24" t="s">
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="41">
+        <v>45442</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="36"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="30">
-        <f>SUM(D49:D53)</f>
+      <c r="D60" s="30">
+        <f>SUM(D55:D59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40">
-        <v>45442</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="24" t="s">
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="41"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="36"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="42"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="42"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="42"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="42"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="42"/>
+      <c r="B67" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="30">
-        <f>SUM(D56:D60)</f>
+      <c r="D67" s="30">
+        <f>SUM(D62:D66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="36"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="30"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="30"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="30"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="24" t="s">
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="46"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="36"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="42"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="42"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="42"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="42"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="42"/>
+      <c r="B74" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C74" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="30">
-        <f>SUM(D63:D67)</f>
+      <c r="D74" s="30">
+        <f>SUM(D69:D73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="36"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="30"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="30"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="30"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="30"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="24" t="s">
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="46"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="41"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="36"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="42"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="42"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="42"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="42"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="42"/>
+      <c r="B81" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C81" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="30">
-        <f>SUM(D70:D74)</f>
+      <c r="D81" s="30">
+        <f>SUM(D76:D80)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="36"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="30"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="30"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="30"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="30"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="30">
-        <f>SUM(D77:D81)</f>
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="27">
+        <f>D12+D21+D27+D32+D39+D46+D53+D60+D67+D74+D81</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="66"/>
-    </row>
-    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="27">
-        <f>D13+D22+D28+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B52:C52"/>
+  <mergeCells count="73">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A41:A47"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D13 D15:D22 D24:D28 D30:D33">
+  <conditionalFormatting sqref="D14:D21 D23:D27 D29:D32 D6:D12">
     <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
@@ -2406,68 +2421,68 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
+  <conditionalFormatting sqref="D34:D39">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D47">
+  <conditionalFormatting sqref="D41:D46">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D54">
+  <conditionalFormatting sqref="D48:D53">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D61">
+  <conditionalFormatting sqref="D55:D60">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D68">
+  <conditionalFormatting sqref="D62:D67">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D75">
+  <conditionalFormatting sqref="D69:D74">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D82">
+  <conditionalFormatting sqref="D76:D81">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="D83">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2479,8 +2494,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="48" max="16383" man="1"/>
-    <brk id="84" max="3" man="1"/>
+    <brk id="47" max="16383" man="1"/>
+    <brk id="83" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85AD907-90FB-46A5-BC95-F713593D914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49772EA-0C5F-48E4-BEE3-9B81AB84BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -221,6 +221,32 @@
   <si>
     <t>J'ai assez bien avancé sur l'analyse. Je sens que les diagrammes ne seront pas un gros problème pour ce projet et ça me donne confiance!
 J'ai eus un rdv avec Erasmus</t>
+  </si>
+  <si>
+    <t>Deuxième visite des experts</t>
+  </si>
+  <si>
+    <t>Modification de certains diagrammes, encorager à utiiser les mêmes noms dans tous les diagrammes, regrouper les feux de signalisation pour la version du TPI, modification de la date de la présenation (14/06 10h15 A32), informations à propos du WebSumarry et demande d'envoyer le planning et le journal ce vendredi midi</t>
+  </si>
+  <si>
+    <t>Gestion de la création de compte</t>
+  </si>
+  <si>
+    <t>Gestion de la connection à un compte</t>
+  </si>
+  <si>
+    <t>/ La réfléction personnelle de cette journée à été réalisé le 28.05.2024 /
+Journée plutôt satifaisante, un bon nombre de diagrammes ont été réalisé aujourd'hui</t>
+  </si>
+  <si>
+    <t>/ La réfléction personnelle de cette journée à été réalisé le 28.05.2024 /
+La première partie de l'implémentation m'a pris plus de temps que prévu, additionellement j'ai eus le problème avec NetBeans et je suis assez frustré. Mis à part cela, tous se passe relativement bien!</t>
+  </si>
+  <si>
+    <t>Aujourd'hui était une bonne journée de développement mais j'ai senti que je travaillais beaucoup plus lentement sans musique. Je penserai à prendre mes écouteurs demain !</t>
+  </si>
+  <si>
+    <t>Gestion des pop-up</t>
   </si>
 </sst>
 </file>
@@ -734,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -876,112 +902,116 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1555,12 +1585,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1573,19 +1603,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
@@ -1598,13 +1628,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1615,9 +1645,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1628,13 +1658,13 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
+      <c r="A6" s="46">
         <v>45433</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
@@ -1645,11 +1675,11 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="32">
         <v>1</v>
       </c>
@@ -1660,7 +1690,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
@@ -1672,25 +1702,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1732,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
@@ -1715,15 +1745,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="41">
+      <c r="A14" s="46">
         <v>45434</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -1737,17 +1767,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1787,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1799,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
@@ -1781,27 +1811,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="30">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="24" t="s">
         <v>6</v>
       </c>
@@ -1814,55 +1844,55 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41">
+      <c r="A23" s="46">
         <v>45435</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="24" t="s">
         <v>6</v>
       </c>
@@ -1875,25 +1905,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41">
+      <c r="A29" s="46">
         <v>45436</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="36">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
@@ -1905,17 +1937,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
@@ -1928,37 +1960,37 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41">
+      <c r="A34" s="46">
         <v>45439</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="37" t="s">
         <v>37</v>
       </c>
@@ -1970,17 +2002,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="22" t="s">
         <v>42</v>
       </c>
@@ -1992,7 +2024,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="24" t="s">
         <v>6</v>
       </c>
@@ -2004,14 +2036,16 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
+    <row r="40" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="41">
+      <c r="A41" s="46">
         <v>45440</v>
       </c>
       <c r="B41" s="34" t="s">
@@ -2025,378 +2059,349 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="30"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="30">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="47"/>
+      <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="30">
-        <f>SUM(D41:D45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41">
+      <c r="D47" s="30">
+        <f>SUM(D41:D46)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="46">
         <v>45441</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="36"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="30"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
       <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="30">
-        <f>SUM(D48:D52)</f>
+      <c r="D54" s="30">
+        <f>SUM(D49:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41">
+    <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="46">
         <v>45442</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="30"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
       <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="30">
-        <f>SUM(D55:D59)</f>
+      <c r="D61" s="30">
+        <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="46"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="42"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="30"/>
+    <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="42"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="42"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
-      <c r="B67" s="24" t="s">
+      <c r="A67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="47"/>
+      <c r="B68" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="30">
-        <f>SUM(D62:D66)</f>
+      <c r="D68" s="30">
+        <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="46"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="36"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="42"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="30"/>
+    <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="42"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
       <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="42"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
       <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="42"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="47"/>
+      <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="30">
-        <f>SUM(D69:D73)</f>
+      <c r="D75" s="30">
+        <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="36"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="42"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="30"/>
+    <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="46"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
       <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="42"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
       <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="42"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="47"/>
+      <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C82" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="30">
-        <f>SUM(D76:D80)</f>
+      <c r="D82" s="30">
+        <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="66"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="18" t="s">
+    <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="50"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="27">
-        <f>D12+D21+D27+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="D84" s="27">
+        <f>D12+D21+D27+D32+D39+D47+D54+D61+D68+D75+D82</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
+  <mergeCells count="72">
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B22:D22"/>
@@ -2407,13 +2412,69 @@
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A41:A48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="D14:D21 D23:D27 D29:D32 D6:D12">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32">
     <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
@@ -2429,7 +2490,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
+  <conditionalFormatting sqref="D41:D47">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
@@ -2437,52 +2498,52 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
+  <conditionalFormatting sqref="D49:D54">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
+  <conditionalFormatting sqref="D56:D61">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
+  <conditionalFormatting sqref="D63:D68">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
+  <conditionalFormatting sqref="D70:D75">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
+  <conditionalFormatting sqref="D77:D82">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="D84">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2494,8 +2555,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="84" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49772EA-0C5F-48E4-BEE3-9B81AB84BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AD740-CC9B-487D-82CC-D9B6174FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -219,10 +219,6 @@
 Mon chef de projet valide ce changement.</t>
   </si>
   <si>
-    <t>J'ai assez bien avancé sur l'analyse. Je sens que les diagrammes ne seront pas un gros problème pour ce projet et ça me donne confiance!
-J'ai eus un rdv avec Erasmus</t>
-  </si>
-  <si>
     <t>Deuxième visite des experts</t>
   </si>
   <si>
@@ -247,6 +243,13 @@
   </si>
   <si>
     <t>Gestion des pop-up</t>
+  </si>
+  <si>
+    <t>J'ai assez bien avancé sur l'analyse. Je sens que les diagrammes ne seront pas un gros problème pour ce projet et ça me donne confiance!
+J'ai eus un rdv avec Erasmus d'une heure.</t>
+  </si>
+  <si>
+    <t>Gestion multi-vue</t>
   </si>
 </sst>
 </file>
@@ -1588,9 +1591,9 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1744,10 +1747,10 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="41" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
@@ -1907,7 +1910,7 @@
     <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="42"/>
@@ -2039,7 +2042,7 @@
     <row r="40" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="42"/>
@@ -2071,10 +2074,10 @@
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A43" s="47"/>
       <c r="B43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="D43" s="30">
         <v>1</v>
@@ -2083,7 +2086,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="47"/>
       <c r="B44" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="30">
@@ -2093,7 +2096,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
       <c r="B45" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="30">
@@ -2103,7 +2106,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
       <c r="B46" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="30">
@@ -2126,7 +2129,7 @@
     <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
@@ -2135,9 +2138,13 @@
       <c r="A49" s="46">
         <v>45441</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
@@ -2173,7 +2180,7 @@
       </c>
       <c r="D54" s="30">
         <f>SUM(D49:D53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2395,7 @@
       </c>
       <c r="D84" s="27">
         <f>D12+D21+D27+D32+D39+D47+D54+D61+D68+D75+D82</f>
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AD740-CC9B-487D-82CC-D9B6174FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7BB73-30BC-439E-A93B-BD13942DB00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="-45" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -250,6 +250,19 @@
   </si>
   <si>
     <t>Gestion multi-vue</t>
+  </si>
+  <si>
+    <t>Création de la page de simulation</t>
+  </si>
+  <si>
+    <t>Création des beans</t>
+  </si>
+  <si>
+    <t>J'ai commencer à avencer dans la partie intéressante du projet mais je sens que je n'avance pas aussi rapidement que ce qui est prévu sur le planning. Mis à part cela, tout se passe bien!
+Départ à 16h due à un congé le 30 Mai.</t>
+  </si>
+  <si>
+    <t>Affichage à l'écran</t>
   </si>
 </sst>
 </file>
@@ -909,6 +922,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -917,11 +950,71 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -929,121 +1022,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1588,12 +1579,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50:C50"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1606,19 +1597,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21">
         <v>148477</v>
       </c>
@@ -1631,13 +1622,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
@@ -1648,9 +1639,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1661,13 +1652,13 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46">
+      <c r="A6" s="42">
         <v>45433</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="31">
         <v>1.5</v>
       </c>
@@ -1678,11 +1669,11 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32">
         <v>1</v>
       </c>
@@ -1693,7 +1684,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
@@ -1705,25 +1696,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1726,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
@@ -1748,15 +1739,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="42">
         <v>45434</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -1770,27 +1761,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1793,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
@@ -1814,27 +1805,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="30">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="24" t="s">
         <v>6</v>
       </c>
@@ -1847,55 +1838,55 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="42">
         <v>45435</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="24" t="s">
         <v>6</v>
       </c>
@@ -1908,27 +1899,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="42">
         <v>45436</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="36">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
@@ -1940,17 +1931,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
@@ -1963,37 +1954,37 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="42">
         <v>45439</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="30">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="37" t="s">
         <v>37</v>
       </c>
@@ -2005,17 +1996,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="22" t="s">
         <v>42</v>
       </c>
@@ -2027,7 +2018,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="24" t="s">
         <v>6</v>
       </c>
@@ -2040,15 +2031,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
+      <c r="A41" s="42">
         <v>45440</v>
       </c>
       <c r="B41" s="34" t="s">
@@ -2062,17 +2053,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="43"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="19" t="s">
         <v>45</v>
       </c>
@@ -2084,27 +2075,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="40" t="s">
         <v>52</v>
       </c>
@@ -2114,7 +2105,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
@@ -2127,288 +2118,346 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="42">
         <v>45441</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="30"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="24" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="30">
-        <f>SUM(D49:D53)</f>
+      <c r="D52" s="30">
+        <f>SUM(D49:D51)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="42">
+        <v>45442</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46">
-        <v>45442</v>
-      </c>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
-      <c r="D56" s="36"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="24" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="30">
-        <f>SUM(D56:D60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+      <c r="D59" s="30">
+        <f>SUM(D54:D58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="36"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="43"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="43"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
-      <c r="D63" s="36"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="30"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="24" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="30">
-        <f>SUM(D63:D67)</f>
+      <c r="D66" s="30">
+        <f>SUM(D61:D65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
+    <row r="67" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="42"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="36"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="43"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
-      <c r="D70" s="36"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="30"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="30"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="24" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="30">
-        <f>SUM(D70:D74)</f>
+      <c r="D73" s="30">
+        <f>SUM(D68:D72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
+    <row r="74" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="42"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="36"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="43"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="43"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
-      <c r="D77" s="36"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="30"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="30"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="24" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C80" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="30">
-        <f>SUM(D77:D81)</f>
+      <c r="D80" s="30">
+        <f>SUM(D75:D79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="50"/>
-    </row>
-    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="18" t="s">
+    <row r="81" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="67"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="27">
-        <f>D12+D21+D27+D32+D39+D47+D54+D61+D68+D75+D82</f>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="65" t="s">
+      <c r="D82" s="27">
+        <f>D12+D21+D27+D32+D39+D47+D52+D59+D66+D73+D80</f>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A85:D85"/>
+  <mergeCells count="70">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B22:D22"/>
@@ -2419,138 +2468,74 @@
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D54">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
+  <conditionalFormatting sqref="D54:D59">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D61">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
+  <conditionalFormatting sqref="D61:D66">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D68">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D75">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
+  <conditionalFormatting sqref="D75:D80">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D82">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="D82">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2563,7 +2548,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="84" max="3" man="1"/>
+    <brk id="82" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0262B89-BF05-4D71-99F5-9DC7E3AE9200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A393E4-B1DD-47FA-A751-3AFBC2ABED1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>J’ai eu beaucoup de mal à me concentrer et j’avais mal au crâne. C’était une journée productive qu'à partir de l’après-midi.</t>
+  </si>
+  <si>
+    <t>Gestion de la simulation</t>
+  </si>
+  <si>
+    <t>Stabilization de la simulation</t>
+  </si>
+  <si>
+    <t>Mise à jour de la position des voitures</t>
   </si>
 </sst>
 </file>
@@ -748,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -894,75 +903,79 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -970,29 +983,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1523,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1539,19 +1530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="3">
         <v>148477</v>
       </c>
@@ -1564,13 +1555,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1581,9 +1572,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1594,13 +1585,13 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42">
+      <c r="A6" s="45">
         <v>45433</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="15">
         <v>1.5</v>
       </c>
@@ -1611,11 +1602,11 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="19">
         <v>1</v>
       </c>
@@ -1626,7 +1617,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1638,25 +1629,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +1659,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
@@ -1681,15 +1672,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
+      <c r="A14" s="45">
         <v>45434</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -1703,27 +1694,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +1726,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
@@ -1747,17 +1738,17 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="52" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1758,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
@@ -1780,25 +1771,25 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
+      <c r="A23" s="45">
         <v>45435</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="52" t="s">
         <v>24</v>
       </c>
@@ -1808,27 +1799,27 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
@@ -1841,27 +1832,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42">
+      <c r="A29" s="45">
         <v>45436</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
@@ -1873,17 +1864,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
@@ -1896,37 +1887,37 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+      <c r="A34" s="45">
         <v>45439</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="34" t="s">
         <v>30</v>
       </c>
@@ -1938,17 +1929,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1951,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
@@ -1973,15 +1964,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="42">
+      <c r="A41" s="45">
         <v>45440</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -1995,17 +1986,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="23" t="s">
         <v>35</v>
       </c>
@@ -2017,27 +2008,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2047,7 +2038,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
@@ -2060,47 +2051,47 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="45">
         <v>45441</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="48"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
@@ -2113,47 +2104,47 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="42">
+      <c r="A54" s="45">
         <v>45442</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="49"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
@@ -2166,185 +2157,239 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="47" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="47"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="42"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="42"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="42"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
-      <c r="B64" s="28" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45"/>
+      <c r="B61" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="59"/>
+      <c r="D61" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C62" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="25">
-        <f>SUM(D59:D63)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="32"/>
+      <c r="D62" s="25">
+        <f>SUM(D59:D61)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
+      <c r="B64" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="42"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="42"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="42"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="42"/>
-      <c r="B71" s="28" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C69" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="25">
-        <f>SUM(D66:D70)</f>
+      <c r="D69" s="25">
+        <f>SUM(D64:D68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="42"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="32"/>
+    <row r="70" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="45"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="45"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="45"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="45"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="42"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="25"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="42"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="42"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
-      <c r="B78" s="28" t="s">
+      <c r="A76" s="45"/>
+      <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C76" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="25">
-        <f>SUM(D73:D77)</f>
+      <c r="D76" s="25">
+        <f>SUM(D71:D75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39" t="s">
+    <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="45"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+    </row>
+    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="40">
-        <f>D12+D21+D27+D32+D39+D47+D52+D57+D64+D71+D78</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="41" t="s">
+      <c r="D78" s="40">
+        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D69+D76</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="66">
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2355,119 +2400,53 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
+  <conditionalFormatting sqref="D64:D69">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
+  <conditionalFormatting sqref="D71:D76">
+    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
+  <conditionalFormatting sqref="D78">
     <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2480,7 +2459,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="80" max="16383" man="1"/>
+    <brk id="78" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A393E4-B1DD-47FA-A751-3AFBC2ABED1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62D776-5A3D-4502-ABCE-303D6E8F1B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="-45" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>Mise à jour de la position des voitures</t>
+  </si>
+  <si>
+    <t>Création des voitures automatique</t>
+  </si>
+  <si>
+    <t>Très bonne journée de travail. Additionellement, les voitures sont enfin sur la vue ce qui est toujours une bonne nouvelle!</t>
+  </si>
+  <si>
+    <t>Problème N°3: JavaFX est lent!</t>
+  </si>
+  <si>
+    <t>Solution N°3: JavaFX est lent!</t>
+  </si>
+  <si>
+    <t>Dès lors que 3 véhicles sont à l'écran, l'animation est lente et certaines voitures arrêtent même d'avancer avant de dissparaitre. Ceci montre que ce n'est pas un problème de la logique de l'application mais un problème de synchronisation du Thread JavaFX.</t>
+  </si>
+  <si>
+    <t>Après avoit limité le nombre de mise à jour par second (via un Thread.sleep de 16ms), l'application redevient fluide et les véhicles avancent sur l'écran sans trop de soucis. Certains évènements telle que le changement de la taille de la fenêtre causeront la destruction de certains véhicules.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -753,11 +771,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -903,6 +934,58 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -919,10 +1002,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -931,59 +1010,607 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1514,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:C64"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1530,19 +2157,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="3">
         <v>148477</v>
       </c>
@@ -1555,13 +2182,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1572,9 +2199,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1585,13 +2212,13 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="42">
         <v>45433</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="15">
         <v>1.5</v>
       </c>
@@ -1602,11 +2229,11 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="19">
         <v>1</v>
       </c>
@@ -1617,7 +2244,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1629,25 +2256,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +2286,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
@@ -1672,15 +2299,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
+      <c r="A14" s="42">
         <v>45434</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -1694,27 +2321,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +2353,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
@@ -1738,27 +2365,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
@@ -1771,55 +2398,55 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="42">
         <v>45435</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
@@ -1832,27 +2459,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45">
+      <c r="A29" s="42">
         <v>45436</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
@@ -1864,17 +2491,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
@@ -1887,37 +2514,37 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45">
+      <c r="A34" s="42">
         <v>45439</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="34" t="s">
         <v>30</v>
       </c>
@@ -1929,17 +2556,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +2578,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
@@ -1964,15 +2591,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="45">
+      <c r="A41" s="42">
         <v>45440</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -1986,17 +2613,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="23" t="s">
         <v>35</v>
       </c>
@@ -2008,27 +2635,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2038,7 +2665,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
@@ -2051,47 +2678,47 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45">
+      <c r="A49" s="42">
         <v>45441</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="48"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
@@ -2100,51 +2727,51 @@
       </c>
       <c r="D52" s="25">
         <f>SUM(D49:D51)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45">
-        <v>45442</v>
-      </c>
-      <c r="B54" s="54" t="s">
+      <c r="A54" s="42">
+        <v>45443</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="48" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="48"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="48" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
@@ -2153,49 +2780,51 @@
       </c>
       <c r="D57" s="25">
         <f>SUM(D54:D56)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="42">
+        <v>45446</v>
+      </c>
+      <c r="B59" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="55"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="59" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
@@ -2208,188 +2837,232 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="42">
+        <v>45447</v>
+      </c>
+      <c r="B64" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="32"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="25"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
-      <c r="B69" s="28" t="s">
+    <row r="69" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="42"/>
+      <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C71" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="25">
-        <f>SUM(D64:D68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="D71" s="25">
+        <f>SUM(D64:D70)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>45448</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
+    <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="25"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
-      <c r="B76" s="28" t="s">
+    <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="32">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C78" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="25">
-        <f>SUM(D71:D75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-    </row>
-    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39" t="s">
+      <c r="D78" s="25">
+        <f>SUM(D73:D77)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42">
+        <v>45449</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="25">
+        <f>SUM(D80:D84)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+    </row>
+    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="37"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="40">
-        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D69+D76</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="57" t="s">
+      <c r="D87" s="40">
+        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D85+D78</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
+  <mergeCells count="73">
+    <mergeCell ref="A73:A79"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2400,58 +3073,125 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:D86"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D69">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D64:D71">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D76">
-    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
+  <conditionalFormatting sqref="D80:D85">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+      <formula>96</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="20" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73:D78">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.47222222222222199" right="0.15763888888888899" top="1.4569444444444399" bottom="0.43263888888888902" header="0.31527777777777799" footer="0.196527777777778"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;14Informaticien/-ne CFC
 &amp;10Travail pratique individuel 2023 (TPI)</oddHeader>
@@ -2459,7 +3199,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="78" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62D776-5A3D-4502-ABCE-303D6E8F1B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE6A61-95C7-49B8-B4E6-CA5B67EE32A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="-45" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>Après avoit limité le nombre de mise à jour par second (via un Thread.sleep de 16ms), l'application redevient fluide et les véhicles avancent sur l'écran sans trop de soucis. Certains évènements telle que le changement de la taille de la fenêtre causeront la destruction de certains véhicules.</t>
+  </si>
+  <si>
+    <t>Ajout des champs d'édition des véhicules</t>
+  </si>
+  <si>
+    <t>Ajout des champs d'édition des routes</t>
+  </si>
+  <si>
+    <t>Sauvegarde sur la DB</t>
   </si>
 </sst>
 </file>
@@ -934,121 +943,99 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1080,534 +1067,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2143,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2157,19 +1616,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="3">
         <v>148477</v>
       </c>
@@ -2182,13 +1641,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2199,9 +1658,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -2212,13 +1671,13 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42">
+      <c r="A6" s="44">
         <v>45433</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15">
         <v>1.5</v>
       </c>
@@ -2229,11 +1688,11 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="19">
         <v>1</v>
       </c>
@@ -2244,7 +1703,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -2256,25 +1715,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +1745,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
@@ -2299,15 +1758,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
+      <c r="A14" s="44">
         <v>45434</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -2321,27 +1780,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +1812,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
@@ -2365,27 +1824,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
@@ -2398,55 +1857,55 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>45435</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
@@ -2459,27 +1918,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42">
+      <c r="A29" s="44">
         <v>45436</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
@@ -2491,17 +1950,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
@@ -2514,37 +1973,37 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+      <c r="A34" s="44">
         <v>45439</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="34" t="s">
         <v>30</v>
       </c>
@@ -2556,17 +2015,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2037,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
@@ -2591,15 +2050,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="42">
+      <c r="A41" s="44">
         <v>45440</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -2613,17 +2072,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="23" t="s">
         <v>35</v>
       </c>
@@ -2635,27 +2094,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="50" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="50" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2124,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
@@ -2678,47 +2137,47 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="44">
         <v>45441</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="50" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
@@ -2731,47 +2190,47 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="42">
+      <c r="A54" s="44">
         <v>45443</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="49"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="50" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="44"/>
+      <c r="B56" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
@@ -2784,47 +2243,47 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="47" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42">
+      <c r="A59" s="44">
         <v>45446</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="46"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="48" t="s">
+      <c r="A60" s="44"/>
+      <c r="B60" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="48"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="48" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
@@ -2837,41 +2296,41 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="42"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="44"/>
+      <c r="B63" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="42">
+      <c r="A64" s="44">
         <v>45447</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="46"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="48" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="61" t="s">
+      <c r="A66" s="44"/>
+      <c r="B66" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D66" s="25">
@@ -2879,39 +2338,49 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="44"/>
+      <c r="B67" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="43" t="s">
         <v>70</v>
       </c>
       <c r="D67" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="61"/>
       <c r="D70" s="25">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="42"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
@@ -2924,47 +2393,47 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42">
+      <c r="A73" s="44">
         <v>45448</v>
       </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="25"/>
     </row>
     <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="32">
         <v>8.5</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="28" t="s">
         <v>17</v>
       </c>
@@ -2977,47 +2446,47 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
     </row>
     <row r="80" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42">
+      <c r="A80" s="44">
         <v>45449</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="32"/>
     </row>
     <row r="81" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="25">
         <v>8.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="28" t="s">
         <v>17</v>
       </c>
@@ -3030,10 +2499,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
@@ -3047,22 +2516,71 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3073,62 +2591,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62">
     <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Terminé">
@@ -3162,31 +2631,31 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D73:D78">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D80:D85">
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>96</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="20" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="21" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5F87E-42EE-4554-91F9-3BD1847686CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57876C-6791-4C25-A385-342E2E5C55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>Remplir la JavaDoc, améliorer certains messages et retirer les includes inutilisés</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la documentation étais ma passion, aujourd'hui aurai été ma journée préféré de ma scolaritée. À part ça, je suis contant que le projet se termine mais j'aurai préféré que </t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -812,33 +824,237 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -846,207 +1062,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1054,7 +1070,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1086,28 +1102,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF83CBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1290,6 +1284,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1619,1004 +1617,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="3" width="31.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="15" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="15" customWidth="1"/>
-    <col min="218" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="2" customWidth="1"/>
+    <col min="218" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="3">
         <v>148477</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="45">
         <v>45433</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="28">
+      <c r="C6" s="62"/>
+      <c r="D6" s="15">
         <v>1.5</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="32">
+      <c r="C7" s="63"/>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="38">
+      <c r="A9" s="45"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="38">
+      <c r="C10" s="54"/>
+      <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="25">
         <f>SUM(D6:D11)</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="45">
         <v>45434</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="38">
+      <c r="C15" s="56"/>
+      <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="38">
+      <c r="C16" s="47"/>
+      <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="38">
+      <c r="C19" s="54"/>
+      <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="38">
+      <c r="C20" s="57"/>
+      <c r="D20" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="25">
         <f>SUM(D14:D20)</f>
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="45">
         <v>45435</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="38">
+      <c r="C24" s="57"/>
+      <c r="D24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="38">
+      <c r="C25" s="54"/>
+      <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="38">
+      <c r="C26" s="54"/>
+      <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="25">
         <f>SUM(D23:D26)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="45">
         <v>45436</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="46">
+      <c r="C29" s="55"/>
+      <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="38">
+      <c r="C31" s="54"/>
+      <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="25">
         <f>SUM(D29:D31)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="45">
         <v>45439</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="46">
+      <c r="C34" s="53"/>
+      <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="38">
+      <c r="C35" s="54"/>
+      <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="38">
+      <c r="C37" s="54"/>
+      <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="25">
         <f>SUM(D34:D38)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="45">
         <v>45440</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="38">
+      <c r="C42" s="54"/>
+      <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="38">
+      <c r="C44" s="54"/>
+      <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="38">
+      <c r="C45" s="54"/>
+      <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="38">
+      <c r="C46" s="1"/>
+      <c r="D46" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="25">
         <f>SUM(D41:D46)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+      <c r="A49" s="45">
         <v>45441</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="46">
+      <c r="C49" s="53"/>
+      <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="38">
+      <c r="C50" s="54"/>
+      <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="38">
+      <c r="C51" s="54"/>
+      <c r="D51" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="25">
         <f>SUM(D49:D51)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="45">
         <v>45443</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="46">
+      <c r="C54" s="53"/>
+      <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="38">
+      <c r="C55" s="54"/>
+      <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="38">
+      <c r="C56" s="54"/>
+      <c r="D56" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="25">
         <f>SUM(D54:D56)</f>
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
+      <c r="A59" s="45">
         <v>45446</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="46">
+      <c r="C59" s="50"/>
+      <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="59" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="38">
+      <c r="C60" s="51"/>
+      <c r="D60" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="38">
+      <c r="C61" s="51"/>
+      <c r="D61" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="25">
         <f>SUM(D59:D61)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="45"/>
+      <c r="B63" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
+      <c r="A64" s="45">
         <v>45447</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="46">
+      <c r="C64" s="50"/>
+      <c r="D64" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="38">
+      <c r="C65" s="51"/>
+      <c r="D65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="51" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="45"/>
+      <c r="B67" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="38">
+      <c r="C68" s="51"/>
+      <c r="D68" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="38">
+      <c r="C69" s="51"/>
+      <c r="D69" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="38">
-        <v>5</v>
+      <c r="C70" s="51"/>
+      <c r="D70" s="25">
+        <v>4.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
-      <c r="B71" s="42" t="s">
+      <c r="A71" s="45"/>
+      <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="25">
         <f>SUM(D64:D70)</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
+      <c r="A73" s="45">
         <v>45448</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="46">
+      <c r="C73" s="49"/>
+      <c r="D73" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="38"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="38"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="38"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="4" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="64"/>
+      <c r="D74" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="45"/>
+      <c r="B75" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="64"/>
+      <c r="D75" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="45"/>
+      <c r="B76" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="25">
+        <f>SUM(D73:D75)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="45"/>
+      <c r="B77" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="45">
+        <v>45449</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="45"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="45"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="45"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="45"/>
+      <c r="B82" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="42" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="45"/>
+      <c r="B83" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C83" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="38">
-        <f>SUM(D73:D77)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
-        <v>45449</v>
-      </c>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="46"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="38"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="38"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="38"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="38">
+      <c r="D83" s="25">
+        <f>SUM(D78:D82)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
-      <c r="B85" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="38">
-        <f>SUM(D80:D84)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-    </row>
-    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56" t="s">
+    <row r="84" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="57">
-        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D85+D78</f>
+      <c r="D85" s="43">
+        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D83+D76</f>
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="62" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:D22"/>
+  <mergeCells count="71">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2627,64 +2556,117 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62 D73:D76">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D71">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
+  <conditionalFormatting sqref="D78:D83">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D85">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="D85">
     <cfRule type="cellIs" dxfId="2" priority="14" operator="notEqual">
       <formula>96</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2697,7 +2679,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
+    <brk id="85" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57876C-6791-4C25-A385-342E2E5C55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88345D7-FC14-440D-ABC4-DC6D99AE9CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -328,9 +328,6 @@
     <t>Ce fut une très bonne journée. J’ai aussi beaucoup travailler depuis chez moi pour rattraper le retard que j’avais dans mes heures et j’ai aussi terminé d’implémenter la dernière fonctionnalitée majeur que je réaliserai sur l’application.</t>
   </si>
   <si>
-    <t>Total à faire:</t>
-  </si>
-  <si>
     <t>Total général &gt;</t>
   </si>
   <si>
@@ -344,6 +341,12 @@
   </si>
   <si>
     <t xml:space="preserve">Si la documentation étais ma passion, aujourd'hui aurai été ma journée préféré de ma scolaritée. À part ça, je suis contant que le projet se termine mais j'aurai préféré que </t>
+  </si>
+  <si>
+    <t>Deployer la base de donnée</t>
+  </si>
+  <si>
+    <t>C'est une longue et fastidieuse journée de documentation mais c'est la dernière journée! Le plus dure est passé et maintenant je peux à nouveau travailler sur mes autres projets et dormir un nombre d'heure acceptable! Hooray!</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -982,95 +985,91 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1102,28 +1101,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF83CBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1617,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1633,19 +1610,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="3">
         <v>148477</v>
       </c>
@@ -1658,13 +1635,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1675,9 +1652,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1688,13 +1665,13 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="48">
         <v>45433</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="15">
         <v>1.5</v>
       </c>
@@ -1705,11 +1682,11 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="19">
         <v>1</v>
       </c>
@@ -1720,7 +1697,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1732,25 +1709,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1739,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1752,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="52" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1760,7 @@
       <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <v>45434</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -1797,27 +1774,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1806,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
@@ -1841,27 +1818,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1851,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
@@ -1882,47 +1859,47 @@
       <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <v>45435</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +1912,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="52" t="s">
         <v>31</v>
       </c>
@@ -1943,19 +1920,19 @@
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45">
+      <c r="A29" s="48">
         <v>45436</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
@@ -1967,17 +1944,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +1967,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="52" t="s">
         <v>34</v>
       </c>
@@ -1998,29 +1975,29 @@
       <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45">
+      <c r="A34" s="48">
         <v>45439</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
@@ -2032,17 +2009,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="26" t="s">
         <v>40</v>
       </c>
@@ -2054,7 +2031,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2044,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="52" t="s">
         <v>42</v>
       </c>
@@ -2075,7 +2052,7 @@
       <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="45">
+      <c r="A41" s="48">
         <v>45440</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -2089,17 +2066,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="54" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="54"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="23" t="s">
         <v>46</v>
       </c>
@@ -2111,27 +2088,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="54"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
@@ -2141,7 +2118,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2131,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="52" t="s">
         <v>51</v>
       </c>
@@ -2162,39 +2139,39 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45">
+      <c r="A49" s="48">
         <v>45441</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="53"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="54" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="54" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
@@ -2207,7 +2184,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="52" t="s">
         <v>55</v>
       </c>
@@ -2215,39 +2192,39 @@
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45">
+      <c r="A54" s="48">
         <v>45443</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2237,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="52" t="s">
         <v>58</v>
       </c>
@@ -2268,39 +2245,39 @@
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
+      <c r="A59" s="48">
         <v>45446</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="51" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="51" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2290,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="52" t="s">
         <v>62</v>
       </c>
@@ -2321,29 +2298,29 @@
       <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
+      <c r="A64" s="48">
         <v>45447</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="37" t="s">
         <v>65</v>
       </c>
@@ -2355,7 +2332,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="39" t="s">
         <v>67</v>
       </c>
@@ -2367,37 +2344,37 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
-      <c r="B68" s="51" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
-      <c r="B69" s="51" t="s">
+      <c r="A69" s="48"/>
+      <c r="B69" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
-      <c r="B70" s="51" t="s">
+      <c r="A70" s="48"/>
+      <c r="B70" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="25">
         <v>4.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2387,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="52" t="s">
         <v>72</v>
       </c>
@@ -2418,39 +2395,39 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="45">
+      <c r="A73" s="48">
         <v>45448</v>
       </c>
-      <c r="B73" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="49"/>
+      <c r="B73" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="60"/>
       <c r="D73" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="64"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="61"/>
       <c r="D74" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="64" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="64"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
@@ -2462,90 +2439,136 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
-      <c r="B77" s="48" t="s">
+    <row r="77" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48">
+        <v>45449</v>
+      </c>
+      <c r="B78" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="45">
-        <v>45449</v>
-      </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="32"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="47" t="s">
+      <c r="C78" s="60"/>
+      <c r="D78" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="61"/>
+      <c r="D79" s="25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48"/>
+      <c r="B80" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="25">
+        <f>SUM(D78:D79)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="48"/>
+      <c r="B81" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="25">
-        <v>7.5</v>
+      <c r="D82" s="43">
+        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D80+D76</f>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
-      <c r="B83" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="25">
-        <f>SUM(D78:D82)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-    </row>
-    <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42" t="s">
+      <c r="A83" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="43">
-        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D83+D76</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="68">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2556,117 +2579,48 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62 D73:D76">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62 D73:D76 D78:D80">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D71">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D83">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="D82">
     <cfRule type="cellIs" dxfId="2" priority="14" operator="notEqual">
       <formula>96</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2679,7 +2633,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="85" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/docs/3_CAND_Modele_Journal_2024.xlsx
+++ b/docs/3_CAND_Modele_Journal_2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5F87E-42EE-4554-91F9-3BD1847686CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88345D7-FC14-440D-ABC4-DC6D99AE9CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -328,9 +328,6 @@
     <t>Ce fut une très bonne journée. J’ai aussi beaucoup travailler depuis chez moi pour rattraper le retard que j’avais dans mes heures et j’ai aussi terminé d’implémenter la dernière fonctionnalitée majeur que je réaliserai sur l’application.</t>
   </si>
   <si>
-    <t>Total à faire:</t>
-  </si>
-  <si>
     <t>Total général &gt;</t>
   </si>
   <si>
@@ -338,6 +335,18 @@
   </si>
   <si>
     <t>Remplir la JavaDoc, améliorer certains messages et retirer les includes inutilisés</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la documentation étais ma passion, aujourd'hui aurai été ma journée préféré de ma scolaritée. À part ça, je suis contant que le projet se termine mais j'aurai préféré que </t>
+  </si>
+  <si>
+    <t>Deployer la base de donnée</t>
+  </si>
+  <si>
+    <t>C'est une longue et fastidieuse journée de documentation mais c'est la dernière journée! Le plus dure est passé et maintenant je peux à nouveau travailler sur mes autres projets et dormir un nombre d'heure acceptable! Hooray!</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -814,218 +829,218 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1034,7 +1049,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1044,17 +1063,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1086,50 +1101,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF83CBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1290,6 +1261,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1619,956 +1594,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="3" width="31.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="15" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="15" customWidth="1"/>
-    <col min="218" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="2" customWidth="1"/>
+    <col min="218" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="3">
         <v>148477</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="48">
         <v>45433</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="28">
+      <c r="C6" s="49"/>
+      <c r="D6" s="15">
         <v>1.5</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="32">
+      <c r="C7" s="50"/>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="38">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="38">
+      <c r="C10" s="51"/>
+      <c r="D10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="25">
         <f>SUM(D6:D11)</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="48">
         <v>45434</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="38">
+      <c r="C15" s="53"/>
+      <c r="D15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="38">
+      <c r="C16" s="54"/>
+      <c r="D16" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="38">
+      <c r="C19" s="51"/>
+      <c r="D19" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="38">
+      <c r="C20" s="55"/>
+      <c r="D20" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="25">
         <f>SUM(D14:D20)</f>
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="48">
         <v>45435</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="38">
+      <c r="C24" s="55"/>
+      <c r="D24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="38">
+      <c r="C25" s="51"/>
+      <c r="D25" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="38">
+      <c r="C26" s="51"/>
+      <c r="D26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="25">
         <f>SUM(D23:D26)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="48">
         <v>45436</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="46">
+      <c r="C29" s="56"/>
+      <c r="D29" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="38">
+      <c r="C31" s="51"/>
+      <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="25">
         <f>SUM(D29:D31)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="48">
         <v>45439</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="46">
+      <c r="C34" s="57"/>
+      <c r="D34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="38">
+      <c r="C35" s="51"/>
+      <c r="D35" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="38">
+      <c r="C37" s="51"/>
+      <c r="D37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="25">
         <f>SUM(D34:D38)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="48">
         <v>45440</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="38">
+      <c r="C42" s="51"/>
+      <c r="D42" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="38">
+      <c r="C44" s="51"/>
+      <c r="D44" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="38">
+      <c r="C45" s="51"/>
+      <c r="D45" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="38">
+      <c r="C46" s="1"/>
+      <c r="D46" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="25">
         <f>SUM(D41:D46)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+      <c r="A49" s="48">
         <v>45441</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="46">
+      <c r="C49" s="57"/>
+      <c r="D49" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="38">
+      <c r="C50" s="51"/>
+      <c r="D50" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="38">
+      <c r="C51" s="51"/>
+      <c r="D51" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="48"/>
+      <c r="B52" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="25">
         <f>SUM(D49:D51)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="48">
         <v>45443</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="46">
+      <c r="C54" s="57"/>
+      <c r="D54" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="38">
+      <c r="C55" s="51"/>
+      <c r="D55" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="38">
+      <c r="C56" s="51"/>
+      <c r="D56" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="25">
         <f>SUM(D54:D56)</f>
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
+      <c r="A59" s="48">
         <v>45446</v>
       </c>
       <c r="B59" s="58" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="58"/>
-      <c r="D59" s="46">
+      <c r="D59" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="59" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="59"/>
-      <c r="D60" s="38">
+      <c r="D60" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="59" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="59"/>
-      <c r="D61" s="38">
+      <c r="D61" s="25">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="25">
         <f>SUM(D59:D61)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
+      <c r="A64" s="48">
         <v>45447</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="58"/>
-      <c r="D64" s="46">
+      <c r="D64" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="59" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="59"/>
-      <c r="D65" s="38">
+      <c r="D65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="51" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="48"/>
+      <c r="B67" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="59" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="59"/>
-      <c r="D68" s="38">
+      <c r="D68" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="59" t="s">
         <v>70</v>
       </c>
       <c r="C69" s="59"/>
-      <c r="D69" s="38">
+      <c r="D69" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="59" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="59"/>
-      <c r="D70" s="38">
-        <v>5</v>
+      <c r="D70" s="25">
+        <v>4.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
-      <c r="B71" s="42" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="25">
         <f>SUM(D64:D70)</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="48"/>
+      <c r="B72" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
+      <c r="A73" s="48">
         <v>45448</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
+      <c r="B74" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="46">
+      <c r="C74" s="61"/>
+      <c r="D74" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
+      <c r="B75" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="61"/>
+      <c r="D75" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="38"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="38"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="38"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="4" t="s">
+    <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="25">
+        <f>SUM(D73:D75)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48">
+        <v>45449</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="61"/>
+      <c r="D79" s="25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48"/>
+      <c r="B80" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="25">
+        <f>SUM(D78:D79)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="48"/>
+      <c r="B81" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="38">
-        <f>SUM(D73:D77)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
-        <v>45449</v>
-      </c>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="46"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="38"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="38"/>
+      <c r="D82" s="43">
+        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D80+D76</f>
+        <v>96</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="38"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="38">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
-      <c r="B85" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="38">
-        <f>SUM(D80:D84)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-    </row>
-    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56" t="s">
+      <c r="A83" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="57">
-        <f>D12+D21+D27+D32+D39+D47+D52+D57+D62+D71+D85+D78</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="A73:A79"/>
+  <mergeCells count="68">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A73:A77"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="A64:A72"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
@@ -2628,63 +2580,47 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:D13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D12 D14:D21 D23:D27 D29:D32 D49:D52 D54:D57 D59:D62 D73:D76 D78:D80">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D71">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D85">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="D82">
     <cfRule type="cellIs" dxfId="2" priority="14" operator="notEqual">
       <formula>96</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2697,7 +2633,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="48" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>